--- a/biology/Médecine/Choose_and_Book/Choose_and_Book.xlsx
+++ b/biology/Médecine/Choose_and_Book/Choose_and_Book.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Choose and Book (CaB or C&amp;B) est un ancien système de réservation informatique pour le National Health Service (NHS) en Angleterre qui permet aux patients ayant besoin d'un rendez-vous en ambulatoire de choisir vers quel hôpital ils sont référés par leur médecin généraliste (GP), et de réserver une date et heure de rendez-vous convenable[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choose and Book (CaB or C&amp;B) est un ancien système de réservation informatique pour le National Health Service (NHS) en Angleterre qui permet aux patients ayant besoin d'un rendez-vous en ambulatoire de choisir vers quel hôpital ils sont référés par leur médecin généraliste (GP), et de réserver une date et heure de rendez-vous convenable.
 Le logiciel est basé sur le logiciel de réservation en ligne Millennium de l'entreprise Cerner.
-Choose and Book est remplacé par le NHS e-Referral Service (en) le 15 juin 2015[2].
+Choose and Book est remplacé par le NHS e-Referral Service (en) le 15 juin 2015.
 </t>
         </is>
       </c>
